--- a/data_output/prism_passive/all_passive_out_emg_gm_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,148 +513,148 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8.7206791013697238</v>
+        <v>8.7206793805790479</v>
       </c>
       <c r="C2">
-        <v>2.0537379633759483</v>
+        <v>2.0537394784134171</v>
       </c>
       <c r="D2">
-        <v>8.0119002697952268</v>
+        <v>8.01190035310103</v>
       </c>
       <c r="E2">
-        <v>6.4137910415836279</v>
+        <v>6.4137907068976112</v>
       </c>
       <c r="F2">
-        <v>19.342658525411924</v>
+        <v>19.342658494883523</v>
       </c>
       <c r="G2">
-        <v>1.6442371354333056</v>
+        <v>1.644237153571994</v>
       </c>
       <c r="H2">
-        <v>18.980962628724594</v>
+        <v>18.9809625160193</v>
       </c>
       <c r="I2">
-        <v>0.83913410923993015</v>
+        <v>0.83913409067690925</v>
       </c>
       <c r="J2">
-        <v>2.1805099023107597</v>
+        <v>2.1805095309254114</v>
       </c>
       <c r="K2">
-        <v>17.719364146038405</v>
+        <v>17.719364689060843</v>
       </c>
       <c r="L2">
-        <v>2.0207036095727964</v>
+        <v>2.0207036090824899</v>
       </c>
       <c r="M2">
-        <v>1.9212282230887741</v>
+        <v>1.9212282151359636</v>
       </c>
       <c r="N2">
-        <v>0.85799500047508059</v>
+        <v>0.85799500259793515</v>
       </c>
       <c r="O2">
-        <v>1.216702294912831</v>
+        <v>1.2167023334142737</v>
       </c>
       <c r="P2">
-        <v>0.74138084418108452</v>
+        <v>0.74138079571179538</v>
       </c>
       <c r="Q2">
-        <v>0.70172383471912825</v>
+        <v>0.70172387165079719</v>
       </c>
       <c r="R2">
-        <v>1.927880312167926</v>
+        <v>1.9278803310590156</v>
       </c>
       <c r="S2">
-        <v>14.195696357274002</v>
+        <v>14.195696284806283</v>
       </c>
       <c r="T2">
-        <v>11.112659819964295</v>
+        <v>11.112659817144753</v>
       </c>
       <c r="U2">
-        <v>2.8369820089271491</v>
+        <v>2.8369814773316562</v>
       </c>
       <c r="V2">
-        <v>15.025991445073757</v>
+        <v>15.025991462094444</v>
       </c>
       <c r="W2">
-        <v>9.9733600924735484</v>
+        <v>9.9733611602079701</v>
       </c>
       <c r="X2">
-        <v>2.320491165329595</v>
+        <v>2.3204905519031906</v>
       </c>
       <c r="Y2">
-        <v>0.9586248657458446</v>
+        <v>0.95862471760114876</v>
       </c>
       <c r="AA2">
-        <v>8.7675931856136682</v>
+        <v>8.767588943850086</v>
       </c>
       <c r="AB2">
-        <v>2.012217066943478</v>
+        <v>2.0122171662231207</v>
       </c>
       <c r="AC2">
-        <v>18.823492822747777</v>
+        <v>18.823493259603378</v>
       </c>
       <c r="AD2">
-        <v>2.5172445032852528</v>
+        <v>2.5172446286622683</v>
       </c>
       <c r="AE2">
-        <v>12.24565265475613</v>
+        <v>12.245652456970362</v>
       </c>
       <c r="AF2">
-        <v>1.4669733238637619</v>
+        <v>1.466973235260177</v>
       </c>
       <c r="AG2">
-        <v>25.613704474344104</v>
+        <v>25.613704336378191</v>
       </c>
       <c r="AH2">
-        <v>1.0718489473957604</v>
+        <v>1.0718489746173883</v>
       </c>
       <c r="AI2">
-        <v>2.3136825712903941</v>
+        <v>2.3136825065547022</v>
       </c>
       <c r="AJ2">
-        <v>10.558213600925397</v>
+        <v>10.558213668624008</v>
       </c>
       <c r="AK2">
-        <v>1.8925662592130887</v>
+        <v>1.8925660206324935</v>
       </c>
       <c r="AL2">
-        <v>6.1390209482264302</v>
+        <v>6.1390226072374317</v>
       </c>
       <c r="AM2">
-        <v>0.46961569668836939</v>
+        <v>0.46961565982885617</v>
       </c>
       <c r="AN2">
-        <v>1.1388024143191215</v>
+        <v>1.1388024172627749</v>
       </c>
       <c r="AO2">
-        <v>2.4471797275366396</v>
+        <v>2.4471797399519466</v>
       </c>
       <c r="AP2">
-        <v>0.40363666029951228</v>
+        <v>0.40363666019866873</v>
       </c>
       <c r="AQ2">
-        <v>2.4494886877418831</v>
+        <v>2.4494871755446774</v>
       </c>
       <c r="AR2">
-        <v>7.4409506400627885</v>
+        <v>7.440950241434968</v>
       </c>
       <c r="AS2">
-        <v>12.434873724089934</v>
+        <v>12.434873847183942</v>
       </c>
       <c r="AT2">
-        <v>1.4538624214517728</v>
+        <v>1.4538621393995801</v>
       </c>
       <c r="AU2">
-        <v>15.172524775859509</v>
+        <v>15.172524958755735</v>
       </c>
       <c r="AV2">
-        <v>7.8360567960863774</v>
+        <v>7.8360568865638598</v>
       </c>
       <c r="AW2">
-        <v>0.37951899482087342</v>
+        <v>0.37951896400579149</v>
       </c>
       <c r="AX2">
-        <v>1.4184518140233175</v>
+        <v>1.4184518451253585</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -667,148 +662,148 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>16.17621569161626</v>
+        <v>16.176214423856383</v>
       </c>
       <c r="C3">
-        <v>1.0608836322466872</v>
+        <v>1.0608837100494186</v>
       </c>
       <c r="D3">
-        <v>2.3398365777090104</v>
+        <v>2.3398365816764248</v>
       </c>
       <c r="E3">
-        <v>13.484079158951639</v>
+        <v>13.484079152464119</v>
       </c>
       <c r="F3">
-        <v>3.3827077673096464</v>
+        <v>3.3827077904550755</v>
       </c>
       <c r="G3">
-        <v>1.4345415922660587</v>
+        <v>1.4345415926743197</v>
       </c>
       <c r="H3">
-        <v>9.4131835312288992</v>
+        <v>9.4131839460280577</v>
       </c>
       <c r="I3">
-        <v>0.85260593359670167</v>
+        <v>0.85260599518480762</v>
       </c>
       <c r="J3">
-        <v>2.7432468608309821</v>
+        <v>2.743246880142816</v>
       </c>
       <c r="K3">
-        <v>8.1284507561909294</v>
+        <v>8.1284510158672525</v>
       </c>
       <c r="L3">
-        <v>1.5437917932564698</v>
+        <v>1.5437918172366594</v>
       </c>
       <c r="M3">
-        <v>2.4233393110058841</v>
+        <v>2.4228435121480194</v>
       </c>
       <c r="N3">
-        <v>2.0600856877528648</v>
+        <v>2.0600852448748426</v>
       </c>
       <c r="O3">
-        <v>2.0547895733130574</v>
+        <v>2.0547895786242916</v>
       </c>
       <c r="P3">
-        <v>0.53772244238678513</v>
+        <v>0.53772243897002303</v>
       </c>
       <c r="Q3">
-        <v>0.39118824434283511</v>
+        <v>0.39118824416767967</v>
       </c>
       <c r="R3">
-        <v>5.9421816074578828</v>
+        <v>5.9421813636307732</v>
       </c>
       <c r="S3">
-        <v>6.9663984242745451</v>
+        <v>6.9663984188520054</v>
       </c>
       <c r="T3">
-        <v>2.3675281585503978</v>
+        <v>2.3675281674617334</v>
       </c>
       <c r="U3">
-        <v>1.231511230906736</v>
+        <v>1.2315112521578271</v>
       </c>
       <c r="V3">
-        <v>9.5392055567902077</v>
+        <v>9.5392056907678988</v>
       </c>
       <c r="W3">
-        <v>1.6176069472931474</v>
+        <v>1.6176069494904788</v>
       </c>
       <c r="X3">
-        <v>0.64422396634198353</v>
+        <v>0.64422396546388327</v>
       </c>
       <c r="Y3">
-        <v>0.71079029193400167</v>
+        <v>0.71079028351877582</v>
       </c>
       <c r="AA3">
-        <v>3.4929877570845762</v>
+        <v>3.4929876279225223</v>
       </c>
       <c r="AB3">
-        <v>7.4581919845752056</v>
+        <v>7.4581919132232599</v>
       </c>
       <c r="AC3">
-        <v>8.4884638345094832</v>
+        <v>8.488463476941094</v>
       </c>
       <c r="AD3">
-        <v>2.9351990240672308</v>
+        <v>2.9351990605117901</v>
       </c>
       <c r="AE3">
-        <v>5.0207784604058121</v>
+        <v>5.0207784632167494</v>
       </c>
       <c r="AF3">
-        <v>2.417495683710142</v>
+        <v>2.4174958165008662</v>
       </c>
       <c r="AG3">
-        <v>10.769845841340777</v>
+        <v>10.769841712883505</v>
       </c>
       <c r="AH3">
-        <v>0.77397606897336646</v>
+        <v>0.77397607157986548</v>
       </c>
       <c r="AI3">
-        <v>3.3589742154758775</v>
+        <v>3.3589729161116639</v>
       </c>
       <c r="AJ3">
-        <v>7.0270738634923644</v>
+        <v>7.027074200523086</v>
       </c>
       <c r="AK3">
-        <v>0.48159986580268538</v>
+        <v>0.48159985313162162</v>
       </c>
       <c r="AL3">
-        <v>5.3181240018597977</v>
+        <v>5.318124747612937</v>
       </c>
       <c r="AM3">
-        <v>7.5144915859330608</v>
+        <v>7.5144916093350496</v>
       </c>
       <c r="AN3">
-        <v>5.2553965130346425</v>
+        <v>5.2553961548146289</v>
       </c>
       <c r="AO3">
-        <v>1.6307942860297615</v>
+        <v>1.6307943801131541</v>
       </c>
       <c r="AP3">
-        <v>0.25324913589740761</v>
+        <v>0.25324910572974219</v>
       </c>
       <c r="AQ3">
-        <v>3.164263506363556</v>
+        <v>3.1642635253384346</v>
       </c>
       <c r="AR3">
-        <v>5.4592611292794873</v>
+        <v>5.4592613532404544</v>
       </c>
       <c r="AS3">
-        <v>9.5721893490648817</v>
+        <v>9.5721893712121275</v>
       </c>
       <c r="AT3">
-        <v>0.62242308428797166</v>
+        <v>0.62242308998534979</v>
       </c>
       <c r="AU3">
-        <v>24.335435428365614</v>
+        <v>24.335435899372872</v>
       </c>
       <c r="AV3">
-        <v>5.5380141130906084</v>
+        <v>5.5380140442504411</v>
       </c>
       <c r="AW3">
-        <v>1.6287876596310691</v>
+        <v>1.6287874592193157</v>
       </c>
       <c r="AX3">
-        <v>1.5888607614289512</v>
+        <v>1.5888608397636268</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gm_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>8.7206793805790479</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.0537394784134171</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>8.01190035310103</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>6.4137907068976112</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>19.342658494883523</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.644237153571994</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>18.9809625160193</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.83913409067690925</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.1805095309254114</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>17.719364689060843</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.0207036090824899</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.9212282151359636</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.85799500259793515</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.2167023334142737</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.74138079571179538</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.70172387165079719</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.9278803310590156</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>14.195696284806283</v>
@@ -585,55 +474,55 @@
         <v>0.95862471760114876</v>
       </c>
       <c r="AA2">
-        <v>8.767588943850086</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>2.0122171662231207</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>18.823493259603378</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>2.5172446286622683</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>12.245652456970362</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.466973235260177</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>25.613704336378191</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.0718489746173883</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>2.3136825065547022</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>10.558213668624008</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.8925660206324935</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>6.1390226072374317</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.46961565982885617</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1.1388024172627749</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>2.4471797399519466</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.40363666019866873</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>2.4494871755446774</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>7.440950241434968</v>
@@ -656,61 +545,61 @@
       <c r="AX2">
         <v>1.4184518451253585</v>
       </c>
+      <c r="AY2">
+        <v>4.6493360456172885</v>
+      </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>16.176214423856383</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.0608837100494186</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.3398365816764248</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>13.484079152464119</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>3.3827077904550755</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.4345415926743197</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>9.4131839460280577</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.85260599518480762</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2.743246880142816</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>8.1284510158672525</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.5437918172366594</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2.4228435121480194</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.0600852448748426</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.0547895786242916</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.53772243897002303</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.39118824416767967</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>5.9421813636307732</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>6.9663984188520054</v>
@@ -734,55 +623,55 @@
         <v>0.71079028351877582</v>
       </c>
       <c r="AA3">
-        <v>3.4929876279225223</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>7.4581919132232599</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>8.488463476941094</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>2.9351990605117901</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>5.0207784632167494</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.4174958165008662</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>10.769841712883505</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.77397607157986548</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>3.3589729161116639</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>7.027074200523086</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.48159985313162162</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>5.318124747612937</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>7.5144916093350496</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>5.2553961548146289</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>1.6307943801131541</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.25324910572974219</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>3.1642635253384346</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>5.4592613532404544</v>
@@ -804,6 +693,9 @@
       </c>
       <c r="AX3">
         <v>1.5888608397636268</v>
+      </c>
+      <c r="AY3">
+        <v>3.0800344385439371</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gm_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8.7206791013697238</v>
+        <v>0.82147052983003199</v>
       </c>
       <c r="C2">
-        <v>2.0537379633759483</v>
+        <v>1.9278803310590156</v>
       </c>
       <c r="D2">
-        <v>8.2495683822828259</v>
+        <v>1.1388024172627749</v>
       </c>
       <c r="E2">
-        <v>6.4137910415836279</v>
+        <v>2.4494871755446774</v>
       </c>
       <c r="F2">
         <v>19.342658525411924</v>
@@ -667,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>16.17621569161626</v>
+        <v>2.0547895786242916</v>
       </c>
       <c r="C3">
-        <v>1.0608836322466872</v>
+        <v>5.9421813636307732</v>
       </c>
       <c r="D3">
-        <v>2.3398365777090104</v>
+        <v>5.2553961548146289</v>
       </c>
       <c r="E3">
-        <v>13.484079158951639</v>
+        <v>3.154230747463485</v>
       </c>
       <c r="F3">
         <v>3.3827077673096464</v>

--- a/data_output/prism_passive/all_passive_out_emg_gm_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>8.7206791013697238</v>
-      </c>
       <c r="C2">
-        <v>2.0537379633759483</v>
+        <v>0.82147052983003199</v>
       </c>
       <c r="D2">
-        <v>8.2495683822828259</v>
+        <v>0.46961565982885617</v>
       </c>
       <c r="E2">
-        <v>6.4137910415836279</v>
+        <v>1.1388024172627749</v>
       </c>
       <c r="F2">
         <v>19.342658525411924</v>
@@ -667,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>16.17621569161626</v>
+        <v>2.0600852448748426</v>
       </c>
       <c r="C3">
-        <v>1.0608836322466872</v>
+        <v>2.0547895786242916</v>
       </c>
       <c r="D3">
-        <v>2.3398365777090104</v>
+        <v>7.5144916093350496</v>
       </c>
       <c r="E3">
-        <v>13.484079158951639</v>
+        <v>5.2553961548146289</v>
       </c>
       <c r="F3">
         <v>3.3827077673096464</v>

--- a/data_output/prism_passive/all_passive_out_emg_gm_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -512,146 +512,149 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>8.7206793805790479</v>
+      </c>
       <c r="C2">
+        <v>2.0537394784134171</v>
+      </c>
+      <c r="D2">
+        <v>8.2495701441743421</v>
+      </c>
+      <c r="E2">
+        <v>6.4137907068976112</v>
+      </c>
+      <c r="F2">
+        <v>19.342658494883523</v>
+      </c>
+      <c r="G2">
+        <v>1.644237153571994</v>
+      </c>
+      <c r="H2">
+        <v>18.9809625160193</v>
+      </c>
+      <c r="I2">
+        <v>0.83913409067690925</v>
+      </c>
+      <c r="J2">
+        <v>2.1805095309254114</v>
+      </c>
+      <c r="K2">
+        <v>17.719364689060843</v>
+      </c>
+      <c r="L2">
+        <v>2.0207036090824899</v>
+      </c>
+      <c r="M2">
+        <v>1.9212282151359636</v>
+      </c>
+      <c r="O2">
         <v>0.82147052983003199</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>0.74138079571179538</v>
+      </c>
+      <c r="Q2">
+        <v>0.70172387165079719</v>
+      </c>
+      <c r="R2">
+        <v>1.9278803310590156</v>
+      </c>
+      <c r="S2">
+        <v>14.195696284806283</v>
+      </c>
+      <c r="T2">
+        <v>9.0290728202603514</v>
+      </c>
+      <c r="U2">
+        <v>2.8369814773316562</v>
+      </c>
+      <c r="V2">
+        <v>15.025991462094444</v>
+      </c>
+      <c r="W2">
+        <v>9.9733611602079701</v>
+      </c>
+      <c r="X2">
+        <v>2.3204905519031906</v>
+      </c>
+      <c r="Y2">
+        <v>0.81230317406019337</v>
+      </c>
+      <c r="AA2">
+        <v>8.767588943850086</v>
+      </c>
+      <c r="AB2">
+        <v>1.1460127204585697</v>
+      </c>
+      <c r="AC2">
+        <v>18.823493259603378</v>
+      </c>
+      <c r="AD2">
+        <v>2.5172446286622683</v>
+      </c>
+      <c r="AE2">
+        <v>12.245652456970362</v>
+      </c>
+      <c r="AF2">
+        <v>1.466973235260177</v>
+      </c>
+      <c r="AG2">
+        <v>25.613704336378191</v>
+      </c>
+      <c r="AH2">
+        <v>0.9964958611016913</v>
+      </c>
+      <c r="AI2">
+        <v>2.3136825065547022</v>
+      </c>
+      <c r="AJ2">
+        <v>10.558213668624008</v>
+      </c>
+      <c r="AK2">
+        <v>1.8925660206324935</v>
+      </c>
+      <c r="AL2">
+        <v>6.1390226072374317</v>
+      </c>
+      <c r="AM2">
         <v>0.46961565982885617</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>1.1388024172627749</v>
       </c>
-      <c r="F2">
-        <v>19.342658525411924</v>
-      </c>
-      <c r="G2">
-        <v>1.6442371354333056</v>
-      </c>
-      <c r="H2">
-        <v>18.980962628724594</v>
-      </c>
-      <c r="I2">
-        <v>0.83913410923993015</v>
-      </c>
-      <c r="J2">
-        <v>2.1805099023107597</v>
-      </c>
-      <c r="K2">
-        <v>17.719364146038405</v>
-      </c>
-      <c r="L2">
-        <v>2.0207036095727964</v>
-      </c>
-      <c r="M2">
-        <v>1.9212282230887741</v>
-      </c>
-      <c r="O2">
-        <v>0.82147069876025447</v>
-      </c>
-      <c r="P2">
-        <v>0.74138084418108452</v>
-      </c>
-      <c r="Q2">
-        <v>0.70172383471912825</v>
-      </c>
-      <c r="R2">
-        <v>1.927880312167926</v>
-      </c>
-      <c r="S2">
-        <v>14.195696357274002</v>
-      </c>
-      <c r="T2">
-        <v>9.0290727960308814</v>
-      </c>
-      <c r="U2">
-        <v>2.8369820089271491</v>
-      </c>
-      <c r="V2">
-        <v>15.025991445073757</v>
-      </c>
-      <c r="W2">
-        <v>9.9733600924735484</v>
-      </c>
-      <c r="X2">
-        <v>2.320491165329595</v>
-      </c>
-      <c r="Y2">
-        <v>0.81230328416840358</v>
-      </c>
-      <c r="AA2">
-        <v>8.7675931856136682</v>
-      </c>
-      <c r="AB2">
-        <v>1.1460126723123172</v>
-      </c>
-      <c r="AC2">
-        <v>18.823492822747777</v>
-      </c>
-      <c r="AD2">
-        <v>2.5172445032852528</v>
-      </c>
-      <c r="AE2">
-        <v>12.24565265475613</v>
-      </c>
-      <c r="AF2">
-        <v>1.4669733238637619</v>
-      </c>
-      <c r="AG2">
-        <v>25.613704474344104</v>
-      </c>
-      <c r="AH2">
-        <v>0.99649586952821012</v>
-      </c>
-      <c r="AI2">
-        <v>2.3136825712903941</v>
-      </c>
-      <c r="AJ2">
-        <v>10.558213600925397</v>
-      </c>
-      <c r="AK2">
-        <v>1.8925662592130887</v>
-      </c>
-      <c r="AL2">
-        <v>6.1390209482264302</v>
-      </c>
-      <c r="AM2">
-        <v>0.46961569668836939</v>
-      </c>
-      <c r="AN2">
-        <v>1.1388024143191215</v>
-      </c>
       <c r="AO2">
-        <v>2.4471797275366396</v>
+        <v>2.4471797399519466</v>
       </c>
       <c r="AP2">
-        <v>0.32928719200150053</v>
+        <v>0.32928713679140381</v>
       </c>
       <c r="AQ2">
-        <v>2.4494886877418831</v>
+        <v>2.4494871755446774</v>
       </c>
       <c r="AR2">
-        <v>7.4409506400627885</v>
+        <v>7.440950241434968</v>
       </c>
       <c r="AS2">
-        <v>12.434873724089934</v>
+        <v>12.434873847183942</v>
       </c>
       <c r="AT2">
-        <v>1.4538624214517728</v>
+        <v>1.4538621393995801</v>
       </c>
       <c r="AU2">
-        <v>15.172524775859509</v>
+        <v>15.172524958755735</v>
       </c>
       <c r="AV2">
-        <v>7.8360567960863774</v>
+        <v>7.8360568865638598</v>
       </c>
       <c r="AW2">
-        <v>0.37951899482087342</v>
+        <v>0.37951896400579149</v>
       </c>
       <c r="AX2">
-        <v>0.86973711937706799</v>
+        <v>0.86973712257715652</v>
       </c>
       <c r="AY2">
-        <v>4.6493358704283461</v>
+        <v>4.6493360456172885</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -659,151 +662,151 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>16.176214423856383</v>
+      </c>
+      <c r="C3">
+        <v>1.0608837100494186</v>
+      </c>
+      <c r="D3">
+        <v>2.3398365816764248</v>
+      </c>
+      <c r="E3">
+        <v>13.484079152464119</v>
+      </c>
+      <c r="F3">
+        <v>3.3827077904550755</v>
+      </c>
+      <c r="G3">
+        <v>1.4345415926743197</v>
+      </c>
+      <c r="H3">
+        <v>9.4131839460280577</v>
+      </c>
+      <c r="I3">
+        <v>1.2177051504552028</v>
+      </c>
+      <c r="J3">
+        <v>2.743246880142816</v>
+      </c>
+      <c r="K3">
+        <v>8.1284510158672525</v>
+      </c>
+      <c r="L3">
+        <v>1.5437918172366594</v>
+      </c>
+      <c r="M3">
+        <v>2.4228435121480194</v>
+      </c>
+      <c r="N3">
         <v>2.0600852448748426</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>2.0547895786242916</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>0.53772243897002303</v>
+      </c>
+      <c r="Q3">
+        <v>0.39118824416767967</v>
+      </c>
+      <c r="R3">
+        <v>5.9421813636307732</v>
+      </c>
+      <c r="S3">
+        <v>8.5628160994092184</v>
+      </c>
+      <c r="T3">
+        <v>2.8238711032665127</v>
+      </c>
+      <c r="U3">
+        <v>1.2315112521578271</v>
+      </c>
+      <c r="V3">
+        <v>9.5392056907678988</v>
+      </c>
+      <c r="W3">
+        <v>1.6421274938579293</v>
+      </c>
+      <c r="X3">
+        <v>0.64422396546388327</v>
+      </c>
+      <c r="Y3">
+        <v>0.71079028351877582</v>
+      </c>
+      <c r="AA3">
+        <v>3.4929876279225223</v>
+      </c>
+      <c r="AB3">
+        <v>7.4581919132232599</v>
+      </c>
+      <c r="AC3">
+        <v>6.140419594086679</v>
+      </c>
+      <c r="AD3">
+        <v>2.9351990605117901</v>
+      </c>
+      <c r="AE3">
+        <v>5.0207784632167494</v>
+      </c>
+      <c r="AF3">
+        <v>1.5834425381113846</v>
+      </c>
+      <c r="AG3">
+        <v>10.769841712883505</v>
+      </c>
+      <c r="AH3">
+        <v>0.45816088258217891</v>
+      </c>
+      <c r="AI3">
+        <v>3.3589729161116639</v>
+      </c>
+      <c r="AJ3">
+        <v>7.027074200523086</v>
+      </c>
+      <c r="AK3">
+        <v>0.48159985313162162</v>
+      </c>
+      <c r="AL3">
+        <v>5.318124747612937</v>
+      </c>
+      <c r="AM3">
         <v>7.5144916093350496</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>5.2553961548146289</v>
       </c>
-      <c r="F3">
-        <v>3.3827077673096464</v>
-      </c>
-      <c r="G3">
-        <v>1.4345415922660587</v>
-      </c>
-      <c r="H3">
-        <v>9.4131835312288992</v>
-      </c>
-      <c r="I3">
-        <v>1.2177050580979749</v>
-      </c>
-      <c r="J3">
-        <v>2.7432468608309821</v>
-      </c>
-      <c r="K3">
-        <v>8.1284507561909294</v>
-      </c>
-      <c r="L3">
-        <v>1.5437917932564698</v>
-      </c>
-      <c r="M3">
-        <v>2.4233393110058841</v>
-      </c>
-      <c r="N3">
-        <v>2.0600856877528648</v>
-      </c>
-      <c r="O3">
-        <v>2.0547895733130574</v>
-      </c>
-      <c r="P3">
-        <v>0.53772244238678513</v>
-      </c>
-      <c r="Q3">
-        <v>0.39118824434283511</v>
-      </c>
-      <c r="R3">
-        <v>5.9421816074578828</v>
-      </c>
-      <c r="S3">
-        <v>8.5628160440783585</v>
-      </c>
-      <c r="T3">
-        <v>2.8238711000975871</v>
-      </c>
-      <c r="U3">
-        <v>1.231511230906736</v>
-      </c>
-      <c r="V3">
-        <v>9.5392055567902077</v>
-      </c>
-      <c r="W3">
-        <v>1.6421274901099923</v>
-      </c>
-      <c r="X3">
-        <v>0.64422396634198353</v>
-      </c>
-      <c r="Y3">
-        <v>0.71079029193400167</v>
-      </c>
-      <c r="AA3">
-        <v>3.4929877570845762</v>
-      </c>
-      <c r="AB3">
-        <v>7.4581919845752056</v>
-      </c>
-      <c r="AC3">
-        <v>6.1404198064025248</v>
-      </c>
-      <c r="AD3">
-        <v>2.9351990240672308</v>
-      </c>
-      <c r="AE3">
-        <v>5.0207784604058121</v>
-      </c>
-      <c r="AF3">
-        <v>1.5834424850595896</v>
-      </c>
-      <c r="AG3">
-        <v>10.769845841340777</v>
-      </c>
-      <c r="AH3">
-        <v>0.45816088498299135</v>
-      </c>
-      <c r="AI3">
-        <v>3.3589742154758775</v>
-      </c>
-      <c r="AJ3">
-        <v>7.0270738634923644</v>
-      </c>
-      <c r="AK3">
-        <v>0.48159986580268538</v>
-      </c>
-      <c r="AL3">
-        <v>5.3181240018597977</v>
-      </c>
-      <c r="AM3">
-        <v>7.5144915859330608</v>
-      </c>
-      <c r="AN3">
-        <v>5.2553965130346425</v>
-      </c>
       <c r="AO3">
-        <v>1.6307942860297615</v>
+        <v>1.6307943801131541</v>
       </c>
       <c r="AP3">
-        <v>0.31975787034493658</v>
+        <v>0.31975787882416479</v>
       </c>
       <c r="AQ3">
-        <v>3.1542307823950999</v>
+        <v>3.154230747463485</v>
       </c>
       <c r="AR3">
-        <v>5.4592611292794873</v>
+        <v>5.4592613532404544</v>
       </c>
       <c r="AS3">
-        <v>9.5721893490648817</v>
+        <v>9.5721893712121275</v>
       </c>
       <c r="AT3">
-        <v>0.62242308428797166</v>
+        <v>0.62242308998534979</v>
       </c>
       <c r="AU3">
-        <v>24.335435428365614</v>
+        <v>24.335435899372872</v>
       </c>
       <c r="AV3">
-        <v>5.5380141130906084</v>
+        <v>5.5380140442504411</v>
       </c>
       <c r="AW3">
-        <v>1.6287876596310691</v>
+        <v>1.6287874592193157</v>
       </c>
       <c r="AX3">
-        <v>1.5888607614289512</v>
+        <v>1.5888608397636268</v>
       </c>
       <c r="AY3">
-        <v>3.0800347982928482</v>
+        <v>3.0800344385439371</v>
       </c>
     </row>
   </sheetData>
